--- a/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -910,22 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PE9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PA6</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -982,10 +966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ENC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PD12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,15 +978,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PA15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWM QI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2306,7 +2306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2581,12 +2581,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2619,30 +2613,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2653,69 +2710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3015,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -3071,8 +3065,8 @@
       <c r="G3" s="11">
         <v>97</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="14">
         <v>12</v>
       </c>
@@ -3096,8 +3090,8 @@
       <c r="G4" s="11">
         <v>98</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="13">
         <v>13</v>
       </c>
@@ -3121,9 +3115,9 @@
       <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="95"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="12">
@@ -3144,9 +3138,9 @@
       <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="96"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="12">
@@ -3167,9 +3161,9 @@
       <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="12">
@@ -3190,9 +3184,9 @@
       <c r="G8" s="11">
         <v>4</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="96"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="12">
@@ -3213,9 +3207,9 @@
       <c r="G9" s="11">
         <v>5</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="96"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="12">
@@ -3236,9 +3230,9 @@
       <c r="G10" s="11">
         <v>38</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="96"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="12">
@@ -3259,9 +3253,9 @@
       <c r="G11" s="11">
         <v>39</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="12">
@@ -3282,9 +3276,9 @@
       <c r="G12" s="11">
         <v>40</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="96"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="12">
@@ -3305,9 +3299,9 @@
       <c r="G13" s="11">
         <v>41</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="96"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="12">
@@ -3328,9 +3322,9 @@
       <c r="G14" s="11">
         <v>42</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="96"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="94"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
@@ -3351,9 +3345,9 @@
       <c r="G15" s="11">
         <v>43</v>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="96"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
@@ -3374,9 +3368,9 @@
       <c r="G16" s="11">
         <v>44</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="96"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
@@ -3397,9 +3391,9 @@
       <c r="G17" s="11">
         <v>45</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="96"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
@@ -3420,9 +3414,9 @@
       <c r="G18" s="9">
         <v>46</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="97"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:10" x14ac:dyDescent="0.15">
@@ -3547,10 +3541,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52:G55"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3575,18 +3569,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="130"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3599,11 +3593,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="115"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="134"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3617,10 +3611,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="104" t="s">
+      <c r="S1" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="104"/>
+      <c r="T1" s="130"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3629,10 +3623,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="108">
+      <c r="B2" s="122">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3644,7 +3638,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="129" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3701,8 +3695,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3713,7 +3707,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="110"/>
+      <c r="G3" s="129"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3768,8 +3762,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="108">
+      <c r="A4" s="116"/>
+      <c r="B4" s="122">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3781,7 +3775,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="120" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3838,8 +3832,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3849,7 +3843,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="108"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3904,8 +3898,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
-      <c r="B6" s="109">
+      <c r="A6" s="116"/>
+      <c r="B6" s="119">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3920,11 +3914,11 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="110" t="s">
-        <v>231</v>
+      <c r="G6" s="129" t="s">
+        <v>227</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I6" s="86">
         <f t="shared" si="6"/>
@@ -3977,8 +3971,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3991,9 +3985,9 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="110"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="86" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I7" s="86">
         <f t="shared" si="6"/>
@@ -4046,8 +4040,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108">
+      <c r="A8" s="116"/>
+      <c r="B8" s="122">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4059,7 +4053,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="111"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4112,8 +4106,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4123,7 +4117,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4176,8 +4170,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="109">
+      <c r="A10" s="116"/>
+      <c r="B10" s="119">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4188,7 +4182,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="129"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4240,8 +4234,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4250,7 +4244,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="110"/>
+      <c r="G11" s="129"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4302,8 +4296,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="108">
+      <c r="A12" s="116"/>
+      <c r="B12" s="122">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4312,7 +4306,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4321,7 +4315,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L12" s="24" t="str">
         <f t="shared" si="8"/>
@@ -4365,15 +4359,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="108"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4382,7 +4376,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L13" s="24" t="str">
         <f t="shared" si="8"/>
@@ -4426,8 +4420,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="109">
+      <c r="A14" s="116"/>
+      <c r="B14" s="119">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4436,7 +4430,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="129"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4488,15 +4482,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="110"/>
+      <c r="G15" s="129"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4548,14 +4542,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108">
+      <c r="A16" s="116"/>
+      <c r="B16" s="122">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4608,15 +4602,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="117"/>
+      <c r="G17" s="128"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4669,10 +4663,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="122">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4684,7 +4678,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="119"/>
+      <c r="G18" s="104"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4736,8 +4730,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="106"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4747,7 +4741,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="120"/>
+      <c r="G19" s="103"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4799,8 +4793,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="106"/>
-      <c r="B20" s="109">
+      <c r="A20" s="116"/>
+      <c r="B20" s="119">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4813,7 +4807,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="120" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4870,8 +4864,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4882,7 +4876,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="117"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4937,10 +4931,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="118">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4953,9 +4947,9 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="119"/>
+      <c r="G22" s="104"/>
       <c r="H22" s="86" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I22" s="86">
         <f t="shared" si="6"/>
@@ -5008,8 +5002,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="106"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5019,9 +5013,9 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="120"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="86" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I23" s="86">
         <f t="shared" si="6"/>
@@ -5074,8 +5068,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="106"/>
-      <c r="B24" s="109">
+      <c r="A24" s="116"/>
+      <c r="B24" s="119">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5086,7 +5080,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="111"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5139,8 +5133,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="106"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5149,7 +5143,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="108"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5202,8 +5196,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
-      <c r="B26" s="108">
+      <c r="A26" s="116"/>
+      <c r="B26" s="122">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5214,7 +5208,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="123"/>
+      <c r="G26" s="102"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5266,8 +5260,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
-      <c r="B27" s="109"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5278,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="120"/>
+      <c r="G27" s="103"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5286,11 +5280,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L27" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="M27" s="28" t="str">
         <f t="shared" si="9"/>
@@ -5330,14 +5324,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="106"/>
-      <c r="B28" s="109">
+      <c r="A28" s="116"/>
+      <c r="B28" s="119">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="111"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5390,15 +5384,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="107"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="117"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5451,7 +5445,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="125" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5513,8 +5507,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="106"/>
-      <c r="B31" s="109" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="119" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5523,7 +5517,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="123"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5576,14 +5570,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="106"/>
-      <c r="B32" s="109"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="124"/>
+      <c r="G32" s="105"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5635,14 +5629,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="106"/>
-      <c r="B33" s="109"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="124"/>
+      <c r="G33" s="105"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5694,14 +5688,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="106"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="124"/>
+      <c r="G34" s="105"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5753,15 +5747,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="106"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="120"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5814,15 +5808,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108" t="s">
+      <c r="A36" s="116"/>
+      <c r="B36" s="122" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="123"/>
+      <c r="G36" s="102"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5874,14 +5868,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="106"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="124"/>
+      <c r="G37" s="105"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5933,14 +5927,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="106"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="124"/>
+      <c r="G38" s="105"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5992,14 +5986,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="124"/>
+      <c r="G39" s="105"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6051,12 +6045,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="118"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="125"/>
+      <c r="G40" s="121"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6108,10 +6102,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="122">
+      <c r="B41" s="118">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6124,15 +6118,13 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="119" t="s">
+      <c r="G41" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="H41" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="85">
+      <c r="H41" s="85"/>
+      <c r="I41" s="85" t="str">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v/>
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="33" t="str">
@@ -6145,15 +6137,15 @@
       </c>
       <c r="M41" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PE9</v>
       </c>
       <c r="O41" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H41,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H41,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>40</v>
+        <v/>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="11"/>
@@ -6181,8 +6173,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="127"/>
-      <c r="B42" s="108"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="122"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6195,7 +6187,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="124"/>
+      <c r="G42" s="105"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6247,8 +6239,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="127"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6259,13 +6251,10 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="124"/>
-      <c r="H43" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="I43" s="86">
+      <c r="G43" s="105"/>
+      <c r="I43" s="86" t="str">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="33" t="str">
@@ -6278,15 +6267,15 @@
       </c>
       <c r="M43" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PE11</v>
       </c>
       <c r="O43" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H43,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H43,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>42</v>
+        <v/>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="11"/>
@@ -6314,8 +6303,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="127"/>
-      <c r="B44" s="109"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6328,7 +6317,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="124"/>
+      <c r="G44" s="105"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6380,8 +6369,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="127"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6392,13 +6381,10 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="124"/>
-      <c r="H45" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="I45" s="86">
+      <c r="G45" s="105"/>
+      <c r="I45" s="86" t="str">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v/>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="33" t="str">
@@ -6411,15 +6397,15 @@
       </c>
       <c r="M45" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PE13</v>
       </c>
       <c r="O45" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H45,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H45,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>44</v>
+        <v/>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="11"/>
@@ -6447,8 +6433,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="127"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6461,7 +6447,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="124"/>
+      <c r="G46" s="105"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6513,8 +6499,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="127"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6525,13 +6511,11 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="120"/>
-      <c r="H47" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="I47" s="89">
+      <c r="G47" s="103"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89" t="str">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v/>
       </c>
       <c r="J47" s="51"/>
       <c r="K47" s="33" t="str">
@@ -6544,15 +6528,15 @@
       </c>
       <c r="M47" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PE14</v>
       </c>
       <c r="O47" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H47,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H47,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>45</v>
+        <v/>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="11"/>
@@ -6580,8 +6564,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="127"/>
-      <c r="B48" s="108">
+      <c r="A48" s="124"/>
+      <c r="B48" s="122">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6596,15 +6580,10 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="123" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="86">
+      <c r="G48" s="102"/>
+      <c r="I48" s="86" t="str">
         <f t="shared" si="6"/>
-        <v>77</v>
+        <v/>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="33" t="str">
@@ -6617,15 +6596,15 @@
       </c>
       <c r="M48" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PA15</v>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H48,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H48,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>77</v>
+        <v/>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="11"/>
@@ -6645,7 +6624,7 @@
       </c>
       <c r="U48" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V48" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6653,8 +6632,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="127"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6664,13 +6643,10 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="124"/>
-      <c r="H49" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="86">
+      <c r="G49" s="105"/>
+      <c r="I49" s="86" t="str">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v/>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="33" t="str">
@@ -6679,7 +6655,7 @@
       </c>
       <c r="L49" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PB3</v>
       </c>
       <c r="M49" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6689,9 +6665,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H49,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H49,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>89</v>
+        <v/>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="11"/>
@@ -6711,7 +6687,7 @@
       </c>
       <c r="U49" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V49" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6719,8 +6695,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="127"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6730,7 +6706,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="124"/>
+      <c r="G50" s="105"/>
       <c r="I50" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6774,7 +6750,7 @@
       </c>
       <c r="U50" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V50" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6782,8 +6758,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="127"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6793,7 +6769,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="120"/>
+      <c r="G51" s="103"/>
       <c r="H51" s="89"/>
       <c r="I51" s="89" t="str">
         <f t="shared" si="6"/>
@@ -6838,7 +6814,7 @@
       </c>
       <c r="U51" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V51" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6846,8 +6822,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="127"/>
-      <c r="B52" s="109">
+      <c r="A52" s="124"/>
+      <c r="B52" s="119">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6862,11 +6838,11 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="123" t="s">
-        <v>235</v>
+      <c r="G52" s="102" t="s">
+        <v>230</v>
       </c>
       <c r="H52" s="86" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I52" s="86">
         <f t="shared" si="6"/>
@@ -6883,7 +6859,7 @@
       </c>
       <c r="M52" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="O52" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6919,8 +6895,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="127"/>
-      <c r="B53" s="109"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6933,9 +6909,9 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="124"/>
+      <c r="G53" s="105"/>
       <c r="H53" s="86" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I53" s="86">
         <f t="shared" si="6"/>
@@ -6952,7 +6928,7 @@
       </c>
       <c r="M53" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="O53" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6988,8 +6964,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="127"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -7000,7 +6976,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="124"/>
+      <c r="G54" s="105"/>
       <c r="I54" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7016,7 +6992,7 @@
       </c>
       <c r="M54" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC8</v>
+        <v/>
       </c>
       <c r="O54" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7052,8 +7028,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="127"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7064,7 +7040,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="120"/>
+      <c r="G55" s="103"/>
       <c r="H55" s="89"/>
       <c r="I55" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7081,7 +7057,7 @@
       </c>
       <c r="M55" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="O55" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7117,8 +7093,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="127"/>
-      <c r="B56" s="108">
+      <c r="A56" s="124"/>
+      <c r="B56" s="122">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7130,11 +7106,11 @@
       <c r="E56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="123" t="s">
-        <v>236</v>
+      <c r="G56" s="102" t="s">
+        <v>231</v>
       </c>
       <c r="H56" s="86" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I56" s="86">
         <f t="shared" si="6"/>
@@ -7187,8 +7163,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="127"/>
-      <c r="B57" s="109"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7198,9 +7174,9 @@
       <c r="E57" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="124"/>
+      <c r="G57" s="105"/>
       <c r="H57" s="86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I57" s="86">
         <f t="shared" si="6"/>
@@ -7253,8 +7229,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="127"/>
-      <c r="B58" s="109"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7264,7 +7240,7 @@
       <c r="E58" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="124"/>
+      <c r="G58" s="105"/>
       <c r="I58" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7316,8 +7292,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="127"/>
-      <c r="B59" s="111"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7327,7 +7303,7 @@
       <c r="E59" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="120"/>
+      <c r="G59" s="103"/>
       <c r="H59" s="89"/>
       <c r="I59" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7380,8 +7356,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="127"/>
-      <c r="B60" s="109">
+      <c r="A60" s="124"/>
+      <c r="B60" s="119">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7392,11 +7368,11 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="123" t="s">
-        <v>236</v>
+      <c r="G60" s="102" t="s">
+        <v>231</v>
       </c>
       <c r="H60" s="86" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I60" s="86">
         <f t="shared" si="6"/>
@@ -7449,17 +7425,17 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="127"/>
-      <c r="B61" s="109"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="124"/>
+      <c r="G61" s="105"/>
       <c r="H61" s="86" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I61" s="86">
         <f t="shared" si="6"/>
@@ -7512,15 +7488,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="127"/>
-      <c r="B62" s="109"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="124"/>
+      <c r="G62" s="105"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7572,8 +7548,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="127"/>
-      <c r="B63" s="109"/>
+      <c r="A63" s="124"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7582,7 +7558,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="120"/>
+      <c r="G63" s="103"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7635,8 +7611,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="127"/>
-      <c r="B64" s="108">
+      <c r="A64" s="124"/>
+      <c r="B64" s="122">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7694,8 +7670,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="127"/>
-      <c r="B65" s="109"/>
+      <c r="A65" s="124"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7751,8 +7727,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="127"/>
-      <c r="B66" s="109"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7808,8 +7784,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="127"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7866,8 +7842,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="127"/>
-      <c r="B68" s="109">
+      <c r="A68" s="124"/>
+      <c r="B68" s="119">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7878,15 +7854,20 @@
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="92"/>
-      <c r="I68" s="86" t="str">
+      <c r="G68" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="I68" s="86">
         <f t="shared" ref="I68:I131" si="17">IF(O68="",P68,O68)</f>
-        <v/>
+        <v>63</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="33" t="str">
         <f t="shared" ref="K68:K131" si="18">IF(D68="","",IF(COUNTIF($H:$H,D68)=0,D68,""))</f>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L68" s="24" t="str">
         <f t="shared" ref="L68:L131" si="19">IF(E68="","",IF(COUNTIF($H:$H,E68)=0,E68,""))</f>
@@ -7900,9 +7881,9 @@
         <f t="shared" ref="O68:O131" si="21">IF(Q68,$Q$1,"")&amp;IF(R68=1,$R$1,"")</f>
         <v/>
       </c>
-      <c r="P68" s="1" t="str">
+      <c r="P68" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H68,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H68,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>63</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" ref="Q68:Q131" si="22">IF(COUNTIF(H:H,H68)&gt;1,1,0)</f>
@@ -7922,7 +7903,7 @@
       </c>
       <c r="U68" s="1" t="str">
         <f t="shared" ref="U68:U131" si="26">IF(B68=0,U67,IF(G68="","",G68))</f>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V68" s="1" t="str">
         <f t="shared" ref="V68:V131" si="27">S68&amp;T68&amp;"_"&amp;C68</f>
@@ -7930,8 +7911,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="127"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7941,7 +7922,7 @@
       <c r="E69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="93"/>
+      <c r="G69" s="105"/>
       <c r="I69" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -7985,7 +7966,7 @@
       </c>
       <c r="U69" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V69" s="1" t="str">
         <f t="shared" si="27"/>
@@ -7993,23 +7974,26 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="127"/>
-      <c r="B70" s="109"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="93"/>
-      <c r="I70" s="86" t="str">
+      <c r="G70" s="105"/>
+      <c r="H70" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>64</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L70" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8023,9 +8007,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P70" s="1" t="str">
+      <c r="P70" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H70,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H70,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>64</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="22"/>
@@ -8045,7 +8029,7 @@
       </c>
       <c r="U70" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V70" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8053,8 +8037,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="127"/>
-      <c r="B71" s="109"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8064,7 +8048,7 @@
       <c r="E71" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G71" s="91"/>
+      <c r="G71" s="105"/>
       <c r="I71" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8108,7 +8092,7 @@
       </c>
       <c r="U71" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V71" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8116,23 +8100,26 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="127"/>
-      <c r="B72" s="109"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="93"/>
-      <c r="I72" s="86" t="str">
+      <c r="G72" s="105"/>
+      <c r="H72" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC8</v>
+        <v/>
       </c>
       <c r="L72" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8146,9 +8133,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P72" s="1" t="str">
+      <c r="P72" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H72,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H72,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>65</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="22"/>
@@ -8168,7 +8155,7 @@
       </c>
       <c r="U72" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V72" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8176,8 +8163,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="127"/>
-      <c r="B73" s="109"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="119"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8187,7 +8174,7 @@
       <c r="E73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="93"/>
+      <c r="G73" s="105"/>
       <c r="I73" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8231,7 +8218,7 @@
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V73" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8239,8 +8226,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="127"/>
-      <c r="B74" s="109"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8249,16 +8236,18 @@
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89" t="str">
+      <c r="G74" s="103"/>
+      <c r="H74" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" s="89">
         <f t="shared" si="17"/>
-        <v/>
+        <v>66</v>
       </c>
       <c r="J74" s="51"/>
       <c r="K74" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L74" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8272,9 +8261,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P74" s="1" t="str">
+      <c r="P74" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H74,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H74,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>66</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="22"/>
@@ -8294,7 +8283,7 @@
       </c>
       <c r="U74" s="1" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>PWM QI</v>
       </c>
       <c r="V74" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8302,8 +8291,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="127"/>
-      <c r="B75" s="111">
+      <c r="A75" s="124"/>
+      <c r="B75" s="120">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8316,12 +8305,15 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="123" t="s">
+      <c r="G75" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="H75" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="I75" s="86" t="str">
+      <c r="I75" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="33" t="str">
@@ -8330,7 +8322,7 @@
       </c>
       <c r="L75" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PE5</v>
+        <v/>
       </c>
       <c r="M75" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8340,9 +8332,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P75" s="1" t="str">
+      <c r="P75" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H75,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H75,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="22"/>
@@ -8370,8 +8362,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="127"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8382,11 +8374,13 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89" t="str">
+      <c r="G76" s="103"/>
+      <c r="H76" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="I76" s="89">
         <f t="shared" si="17"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J76" s="51"/>
       <c r="K76" s="33" t="str">
@@ -8395,7 +8389,7 @@
       </c>
       <c r="L76" s="24" t="str">
         <f t="shared" si="19"/>
-        <v>PE6</v>
+        <v/>
       </c>
       <c r="M76" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8405,9 +8399,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P76" s="1" t="str">
+      <c r="P76" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H76,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H76,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="22"/>
@@ -8435,7 +8429,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="127"/>
+      <c r="A77" s="124"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8500,7 +8494,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="127"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8563,8 +8557,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="127"/>
-      <c r="B79" s="135">
+      <c r="A79" s="124"/>
+      <c r="B79" s="113">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8627,8 +8621,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="127"/>
-      <c r="B80" s="136"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8690,7 +8684,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="127"/>
+      <c r="A81" s="124"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8753,7 +8747,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="127"/>
+      <c r="A82" s="124"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8817,10 +8811,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="121" t="s">
+      <c r="A83" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="122">
+      <c r="B83" s="118">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8884,8 +8878,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="106"/>
-      <c r="B84" s="109"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8944,8 +8938,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="106"/>
-      <c r="B85" s="109"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -9004,8 +8998,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="106"/>
-      <c r="B86" s="109"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9064,8 +9058,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="106"/>
-      <c r="B87" s="109"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9124,8 +9118,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="106"/>
-      <c r="B88" s="109"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9184,8 +9178,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="106"/>
-      <c r="B89" s="109"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9244,8 +9238,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="106"/>
-      <c r="B90" s="109"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="119"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9304,8 +9298,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="106"/>
-      <c r="B91" s="109"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9364,8 +9358,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="106"/>
-      <c r="B92" s="109"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9424,19 +9418,19 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="106"/>
-      <c r="B93" s="109"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="124" t="s">
-        <v>226</v>
+      <c r="G93" s="105" t="s">
+        <v>222</v>
       </c>
       <c r="H93" s="86" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I93" s="86">
         <f t="shared" si="17"/>
@@ -9489,17 +9483,17 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="106"/>
-      <c r="B94" s="109"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="119"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="124"/>
+      <c r="G94" s="105"/>
       <c r="H94" s="86" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I94" s="86">
         <f t="shared" si="17"/>
@@ -9552,17 +9546,17 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="106"/>
-      <c r="B95" s="109"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="119"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="124"/>
+      <c r="G95" s="105"/>
       <c r="H95" s="86" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I95" s="86">
         <f t="shared" si="17"/>
@@ -9615,17 +9609,17 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="106"/>
-      <c r="B96" s="109"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="119"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="124"/>
+      <c r="G96" s="105"/>
       <c r="H96" s="86" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I96" s="86">
         <f t="shared" si="17"/>
@@ -9678,15 +9672,15 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="106"/>
-      <c r="B97" s="109"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="93"/>
+      <c r="G97" s="91"/>
       <c r="I97" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9738,15 +9732,15 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="106"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="116"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G98" s="94"/>
+      <c r="G98" s="92"/>
       <c r="H98" s="89"/>
       <c r="I98" s="89" t="str">
         <f t="shared" si="17"/>
@@ -9799,8 +9793,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="106"/>
-      <c r="B99" s="109">
+      <c r="A99" s="116"/>
+      <c r="B99" s="119">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9863,8 +9857,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="106"/>
-      <c r="B100" s="109"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="119"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9923,8 +9917,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="106"/>
-      <c r="B101" s="109"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="119"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9983,8 +9977,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="106"/>
-      <c r="B102" s="109"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="119"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10043,8 +10037,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="106"/>
-      <c r="B103" s="109"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="119"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10103,8 +10097,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="106"/>
-      <c r="B104" s="109"/>
+      <c r="A104" s="116"/>
+      <c r="B104" s="119"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10163,8 +10157,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="106"/>
-      <c r="B105" s="109"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="119"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10223,8 +10217,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="106"/>
-      <c r="B106" s="109"/>
+      <c r="A106" s="116"/>
+      <c r="B106" s="119"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10283,8 +10277,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="106"/>
-      <c r="B107" s="109"/>
+      <c r="A107" s="116"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10343,8 +10337,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="106"/>
-      <c r="B108" s="109"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="119"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10403,8 +10397,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="106"/>
-      <c r="B109" s="109"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="119"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10463,8 +10457,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="106"/>
-      <c r="B110" s="109"/>
+      <c r="A110" s="116"/>
+      <c r="B110" s="119"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10523,8 +10517,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="106"/>
-      <c r="B111" s="109"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="119"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10583,8 +10577,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="106"/>
-      <c r="B112" s="109"/>
+      <c r="A112" s="116"/>
+      <c r="B112" s="119"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10643,8 +10637,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="106"/>
-      <c r="B113" s="109"/>
+      <c r="A113" s="116"/>
+      <c r="B113" s="119"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10703,8 +10697,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="106"/>
-      <c r="B114" s="109"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="119"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10766,8 +10760,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="106"/>
-      <c r="B115" s="108">
+      <c r="A115" s="116"/>
+      <c r="B115" s="122">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10828,8 +10822,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="106"/>
-      <c r="B116" s="109"/>
+      <c r="A116" s="116"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10888,8 +10882,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="106"/>
-      <c r="B117" s="109"/>
+      <c r="A117" s="116"/>
+      <c r="B117" s="119"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10948,8 +10942,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="106"/>
-      <c r="B118" s="109"/>
+      <c r="A118" s="116"/>
+      <c r="B118" s="119"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -11008,8 +11002,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="106"/>
-      <c r="B119" s="109"/>
+      <c r="A119" s="116"/>
+      <c r="B119" s="119"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11065,8 +11059,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="106"/>
-      <c r="B120" s="109"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="119"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11122,8 +11116,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="106"/>
-      <c r="B121" s="109"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="119"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11179,8 +11173,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="106"/>
-      <c r="B122" s="109"/>
+      <c r="A122" s="116"/>
+      <c r="B122" s="119"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11236,8 +11230,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="106"/>
-      <c r="B123" s="109"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11293,8 +11287,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="106"/>
-      <c r="B124" s="109"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="119"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11350,8 +11344,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="106"/>
-      <c r="B125" s="109"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11410,8 +11404,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="106"/>
-      <c r="B126" s="109"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="119"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11470,8 +11464,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="106"/>
-      <c r="B127" s="109"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="119"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11530,8 +11524,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="106"/>
-      <c r="B128" s="109"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="119"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11590,8 +11584,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="106"/>
-      <c r="B129" s="109"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="119"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11647,8 +11641,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="118"/>
-      <c r="B130" s="111"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="120"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11704,10 +11698,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="121" t="s">
+      <c r="A131" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="122">
+      <c r="B131" s="118">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11718,7 +11712,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="119" t="s">
+      <c r="G131" s="104" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11773,15 +11767,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="106"/>
-      <c r="B132" s="109"/>
+      <c r="A132" s="116"/>
+      <c r="B132" s="119"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="124"/>
+      <c r="G132" s="105"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11789,7 +11783,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="33" t="str">
         <f t="shared" ref="K132:K153" si="29">IF(D132="","",IF(COUNTIF($H:$H,D132)=0,D132,""))</f>
-        <v>PC9</v>
+        <v/>
       </c>
       <c r="L132" s="24" t="str">
         <f t="shared" ref="L132:L153" si="30">IF(E132="","",IF(COUNTIF($H:$H,E132)=0,E132,""))</f>
@@ -11833,15 +11827,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="106"/>
-      <c r="B133" s="109"/>
+      <c r="A133" s="116"/>
+      <c r="B133" s="119"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="124"/>
+      <c r="G133" s="105"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11893,15 +11887,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="106"/>
-      <c r="B134" s="109"/>
+      <c r="A134" s="116"/>
+      <c r="B134" s="119"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="124"/>
+      <c r="G134" s="105"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11953,15 +11947,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="106"/>
-      <c r="B135" s="109"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="119"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="124"/>
+      <c r="G135" s="105"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12013,15 +12007,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="106"/>
-      <c r="B136" s="109"/>
+      <c r="A136" s="116"/>
+      <c r="B136" s="119"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="124"/>
+      <c r="G136" s="105"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12073,15 +12067,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="106"/>
-      <c r="B137" s="109"/>
+      <c r="A137" s="116"/>
+      <c r="B137" s="119"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="124"/>
+      <c r="G137" s="105"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12089,7 +12083,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PC6</v>
+        <v/>
       </c>
       <c r="L137" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12133,15 +12127,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="106"/>
-      <c r="B138" s="109"/>
+      <c r="A138" s="116"/>
+      <c r="B138" s="119"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="124"/>
+      <c r="G138" s="105"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12149,7 +12143,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PC7</v>
+        <v/>
       </c>
       <c r="L138" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12193,15 +12187,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="106"/>
-      <c r="B139" s="109"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="119"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="124"/>
+      <c r="G139" s="105"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12253,15 +12247,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="118"/>
-      <c r="B140" s="111"/>
+      <c r="A140" s="117"/>
+      <c r="B140" s="120"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="125"/>
+      <c r="G140" s="121"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12313,10 +12307,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="121" t="s">
+      <c r="A141" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="122" t="s">
+      <c r="B141" s="118" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12327,7 +12321,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="119" t="s">
+      <c r="G141" s="104" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12382,15 +12376,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="106"/>
-      <c r="B142" s="109"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="119"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="124"/>
+      <c r="G142" s="105"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12442,8 +12436,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="106"/>
-      <c r="B143" s="109"/>
+      <c r="A143" s="116"/>
+      <c r="B143" s="119"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12451,7 +12445,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="124"/>
+      <c r="G143" s="105"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12503,8 +12497,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="106"/>
-      <c r="B144" s="109"/>
+      <c r="A144" s="116"/>
+      <c r="B144" s="119"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12513,7 +12507,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="120"/>
+      <c r="G144" s="103"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12566,8 +12560,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="106"/>
-      <c r="B145" s="108" t="s">
+      <c r="A145" s="116"/>
+      <c r="B145" s="122" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12576,7 +12570,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="123" t="s">
+      <c r="G145" s="102" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12630,15 +12624,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="106"/>
-      <c r="B146" s="109"/>
+      <c r="A146" s="116"/>
+      <c r="B146" s="119"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="124"/>
+      <c r="G146" s="105"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12690,8 +12684,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="118"/>
-      <c r="B147" s="111"/>
+      <c r="A147" s="117"/>
+      <c r="B147" s="120"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12699,7 +12693,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="124"/>
+      <c r="G147" s="105"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12751,15 +12745,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="118"/>
-      <c r="B148" s="111"/>
+      <c r="A148" s="117"/>
+      <c r="B148" s="120"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="125"/>
+      <c r="G148" s="121"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12811,10 +12805,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="128" t="s">
+      <c r="A149" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="131" t="s">
+      <c r="B149" s="109" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12825,7 +12819,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="119" t="s">
+      <c r="G149" s="104" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12836,7 +12830,7 @@
       <c r="J149" s="53"/>
       <c r="K149" s="33" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>PB3</v>
       </c>
       <c r="L149" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12880,15 +12874,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="129"/>
-      <c r="B150" s="132"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="110"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="124"/>
+      <c r="G150" s="105"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12896,7 +12890,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="33" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>PA15</v>
       </c>
       <c r="L150" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12940,15 +12934,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="129"/>
-      <c r="B151" s="132"/>
+      <c r="A151" s="107"/>
+      <c r="B151" s="110"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="124"/>
+      <c r="G151" s="105"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13000,15 +12994,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="129"/>
-      <c r="B152" s="132"/>
+      <c r="A152" s="107"/>
+      <c r="B152" s="110"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="124"/>
+      <c r="G152" s="105"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13060,8 +13054,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="130"/>
-      <c r="B153" s="133"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="111"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13070,7 +13064,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="134"/>
+      <c r="G153" s="112"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13124,63 +13118,7 @@
     </row>
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
+  <mergeCells count="73">
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13197,6 +13135,63 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G68:G74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13208,7 +13203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -13266,8 +13261,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B3,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="136"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="73">
@@ -13293,8 +13288,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B4,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="139"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="73">
@@ -13320,8 +13315,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B5,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="139"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="73">
@@ -13333,7 +13328,7 @@
       </c>
       <c r="D6" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B6,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM2_CN2</v>
+        <v/>
       </c>
       <c r="E6" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B6,使用ポート!$H:$H,0)),"")</f>
@@ -13347,8 +13342,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B6,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="139"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="137"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="73">
@@ -13374,8 +13369,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B7,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="139"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="137"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="73">
@@ -13399,10 +13394,10 @@
       </c>
       <c r="G8" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B8,使用ポート!$H:$H,0)),"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="139"/>
+        <v>TIM9_CN1</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="137"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="73">
@@ -13418,7 +13413,7 @@
       </c>
       <c r="E9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN1</v>
       </c>
       <c r="F9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
@@ -13426,10 +13421,10 @@
       </c>
       <c r="G9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="139"/>
+        <v>TIM9_CN2</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="73">
@@ -13445,7 +13440,7 @@
       </c>
       <c r="E10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN2</v>
       </c>
       <c r="F10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
@@ -13455,8 +13450,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="139"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="137"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="73">
@@ -13472,7 +13467,7 @@
       </c>
       <c r="E11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN3</v>
       </c>
       <c r="F11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
@@ -13482,8 +13477,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="73">
@@ -13499,7 +13494,7 @@
       </c>
       <c r="E12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM8_CN4</v>
       </c>
       <c r="F12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
@@ -13507,10 +13502,10 @@
       </c>
       <c r="G12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM1_CN1</v>
-      </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="139"/>
+        <v/>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="137"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="73">
@@ -13536,8 +13531,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B13,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="139"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="137"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="73">
@@ -13561,10 +13556,10 @@
       </c>
       <c r="G14" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B14,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM1_CN2</v>
-      </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="139"/>
+        <v/>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="137"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="73">
@@ -13590,8 +13585,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B15,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="139"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="137"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="73">
@@ -13615,10 +13610,10 @@
       </c>
       <c r="G16" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B16,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM1_CN3</v>
-      </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="139"/>
+        <v/>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="137"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="73">
@@ -13642,10 +13637,10 @@
       </c>
       <c r="G17" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B17,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM1_CN4</v>
-      </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="139"/>
+        <v/>
+      </c>
+      <c r="H17" s="98"/>
+      <c r="I17" s="137"/>
     </row>
     <row r="18" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="75">
@@ -13653,7 +13648,7 @@
       </c>
       <c r="C18" s="76" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;C$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM2_CN1</v>
+        <v/>
       </c>
       <c r="D18" s="77" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
@@ -13671,8 +13666,8 @@
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
         <v/>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="139"/>
     </row>
     <row r="19" spans="2:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>

--- a/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
@@ -2613,18 +2613,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2650,66 +2710,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3541,7 +3541,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
@@ -3569,18 +3569,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="130"/>
+      <c r="B1" s="102"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3593,11 +3593,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="133" t="s">
+      <c r="K1" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="134"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="113"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3611,10 +3611,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="130" t="s">
+      <c r="S1" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="130"/>
+      <c r="T1" s="102"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3623,10 +3623,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="106">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3638,7 +3638,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="108" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3695,8 +3695,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="116"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="129"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3762,8 +3762,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="116"/>
-      <c r="B4" s="122">
+      <c r="A4" s="104"/>
+      <c r="B4" s="106">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3775,7 +3775,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="109" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3832,8 +3832,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="116"/>
-      <c r="B5" s="120"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="122"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3898,8 +3898,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="116"/>
-      <c r="B6" s="119">
+      <c r="A6" s="104"/>
+      <c r="B6" s="107">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3914,7 +3914,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="108" t="s">
         <v>227</v>
       </c>
       <c r="H6" s="86" t="s">
@@ -3971,8 +3971,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="86" t="s">
         <v>229</v>
       </c>
@@ -4040,8 +4040,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="116"/>
-      <c r="B8" s="122">
+      <c r="A8" s="104"/>
+      <c r="B8" s="106">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4053,7 +4053,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="120"/>
+      <c r="G8" s="109"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4106,8 +4106,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="116"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="122"/>
+      <c r="G9" s="106"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4170,8 +4170,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="116"/>
-      <c r="B10" s="119">
+      <c r="A10" s="104"/>
+      <c r="B10" s="107">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="129"/>
+      <c r="G10" s="108"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4234,8 +4234,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="129"/>
+      <c r="G11" s="108"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4296,8 +4296,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="116"/>
-      <c r="B12" s="122">
+      <c r="A12" s="104"/>
+      <c r="B12" s="106">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4306,7 +4306,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4359,15 +4359,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="116"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="122"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4420,8 +4420,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="116"/>
-      <c r="B14" s="119">
+      <c r="A14" s="104"/>
+      <c r="B14" s="107">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4430,7 +4430,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="129"/>
+      <c r="G14" s="108"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4482,15 +4482,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="116"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="129"/>
+      <c r="G15" s="108"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4542,14 +4542,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="116"/>
-      <c r="B16" s="122">
+      <c r="A16" s="104"/>
+      <c r="B16" s="106">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="120"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4602,15 +4602,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="128"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4663,10 +4663,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="122">
+      <c r="B18" s="106">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4678,7 +4678,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="104"/>
+      <c r="G18" s="117"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4730,8 +4730,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="116"/>
-      <c r="B19" s="120"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="103"/>
+      <c r="G19" s="118"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4793,8 +4793,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="116"/>
-      <c r="B20" s="119">
+      <c r="A20" s="104"/>
+      <c r="B20" s="107">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4807,7 +4807,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="120" t="s">
+      <c r="G20" s="109" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4864,8 +4864,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117"/>
-      <c r="B21" s="127"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="128"/>
+      <c r="G21" s="115"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4931,10 +4931,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="118">
+      <c r="B22" s="120">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4947,7 +4947,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="104"/>
+      <c r="G22" s="117"/>
       <c r="H22" s="86" t="s">
         <v>220</v>
       </c>
@@ -5002,8 +5002,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="116"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="103"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="86" t="s">
         <v>221</v>
       </c>
@@ -5068,8 +5068,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="116"/>
-      <c r="B24" s="119">
+      <c r="A24" s="104"/>
+      <c r="B24" s="107">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="120"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5133,8 +5133,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="116"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="122"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5196,8 +5196,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="116"/>
-      <c r="B26" s="122">
+      <c r="A26" s="104"/>
+      <c r="B26" s="106">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="121"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5260,8 +5260,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="116"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="103"/>
+      <c r="G27" s="118"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5324,14 +5324,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="116"/>
-      <c r="B28" s="119">
+      <c r="A28" s="104"/>
+      <c r="B28" s="107">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="120"/>
+      <c r="G28" s="109"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5384,15 +5384,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="128"/>
+      <c r="G29" s="115"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="103" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5507,8 +5507,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="116"/>
-      <c r="B31" s="119" t="s">
+      <c r="A31" s="104"/>
+      <c r="B31" s="107" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5517,7 +5517,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="102"/>
+      <c r="G31" s="121"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5570,14 +5570,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="116"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="105"/>
+      <c r="G32" s="122"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5629,14 +5629,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="116"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="105"/>
+      <c r="G33" s="122"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5688,14 +5688,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="116"/>
-      <c r="B34" s="119"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="105"/>
+      <c r="G34" s="122"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5747,15 +5747,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="116"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="107"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="103"/>
+      <c r="G35" s="118"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5808,15 +5808,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="116"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="106" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="102"/>
+      <c r="G36" s="121"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5868,14 +5868,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="116"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="105"/>
+      <c r="G37" s="122"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5927,14 +5927,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="116"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="105"/>
+      <c r="G38" s="122"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5986,14 +5986,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="116"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="105"/>
+      <c r="G39" s="122"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6045,12 +6045,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117"/>
-      <c r="B40" s="120"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="121"/>
+      <c r="G40" s="123"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6102,10 +6102,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="118">
+      <c r="B41" s="120">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6118,7 +6118,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="104" t="s">
+      <c r="G41" s="117" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85"/>
@@ -6173,8 +6173,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="124"/>
-      <c r="B42" s="122"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="105"/>
+      <c r="G42" s="122"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6239,8 +6239,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="124"/>
-      <c r="B43" s="119"/>
+      <c r="A43" s="125"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="105"/>
+      <c r="G43" s="122"/>
       <c r="I43" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6303,8 +6303,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="124"/>
-      <c r="B44" s="119"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="105"/>
+      <c r="G44" s="122"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6369,8 +6369,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="124"/>
-      <c r="B45" s="119"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="105"/>
+      <c r="G45" s="122"/>
       <c r="I45" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6433,8 +6433,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="124"/>
-      <c r="B46" s="119"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="105"/>
+      <c r="G46" s="122"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6499,8 +6499,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="124"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="103"/>
+      <c r="G47" s="118"/>
       <c r="H47" s="89"/>
       <c r="I47" s="89" t="str">
         <f t="shared" si="6"/>
@@ -6564,8 +6564,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="124"/>
-      <c r="B48" s="122">
+      <c r="A48" s="125"/>
+      <c r="B48" s="106">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6580,7 +6580,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="102"/>
+      <c r="G48" s="121"/>
       <c r="I48" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6632,8 +6632,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="124"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="105"/>
+      <c r="G49" s="122"/>
       <c r="I49" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6695,8 +6695,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="124"/>
-      <c r="B50" s="119"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="105"/>
+      <c r="G50" s="122"/>
       <c r="I50" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6758,8 +6758,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="124"/>
-      <c r="B51" s="120"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6769,7 +6769,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="103"/>
+      <c r="G51" s="118"/>
       <c r="H51" s="89"/>
       <c r="I51" s="89" t="str">
         <f t="shared" si="6"/>
@@ -6822,8 +6822,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="124"/>
-      <c r="B52" s="119">
+      <c r="A52" s="125"/>
+      <c r="B52" s="107">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6838,7 +6838,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="102" t="s">
+      <c r="G52" s="121" t="s">
         <v>230</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6895,8 +6895,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="124"/>
-      <c r="B53" s="119"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="105"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="86" t="s">
         <v>219</v>
       </c>
@@ -6964,8 +6964,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="124"/>
-      <c r="B54" s="119"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="105"/>
+      <c r="G54" s="122"/>
       <c r="I54" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7028,8 +7028,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="124"/>
-      <c r="B55" s="119"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="103"/>
+      <c r="G55" s="118"/>
       <c r="H55" s="89"/>
       <c r="I55" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7093,8 +7093,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="124"/>
-      <c r="B56" s="122">
+      <c r="A56" s="125"/>
+      <c r="B56" s="106">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7106,7 +7106,7 @@
       <c r="E56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="102" t="s">
+      <c r="G56" s="121" t="s">
         <v>231</v>
       </c>
       <c r="H56" s="86" t="s">
@@ -7163,8 +7163,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="124"/>
-      <c r="B57" s="119"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="E57" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G57" s="105"/>
+      <c r="G57" s="122"/>
       <c r="H57" s="86" t="s">
         <v>233</v>
       </c>
@@ -7229,8 +7229,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="124"/>
-      <c r="B58" s="119"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7240,7 +7240,7 @@
       <c r="E58" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="105"/>
+      <c r="G58" s="122"/>
       <c r="I58" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7292,8 +7292,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="124"/>
-      <c r="B59" s="120"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="109"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="E59" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="103"/>
+      <c r="G59" s="118"/>
       <c r="H59" s="89"/>
       <c r="I59" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7356,8 +7356,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="124"/>
-      <c r="B60" s="119">
+      <c r="A60" s="125"/>
+      <c r="B60" s="107">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="102" t="s">
+      <c r="G60" s="121" t="s">
         <v>231</v>
       </c>
       <c r="H60" s="86" t="s">
@@ -7425,15 +7425,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="124"/>
-      <c r="B61" s="119"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="105"/>
+      <c r="G61" s="122"/>
       <c r="H61" s="86" t="s">
         <v>235</v>
       </c>
@@ -7488,15 +7488,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="124"/>
-      <c r="B62" s="119"/>
+      <c r="A62" s="125"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="105"/>
+      <c r="G62" s="122"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7548,8 +7548,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="124"/>
-      <c r="B63" s="119"/>
+      <c r="A63" s="125"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="103"/>
+      <c r="G63" s="118"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7611,8 +7611,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="122">
+      <c r="A64" s="125"/>
+      <c r="B64" s="106">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7670,8 +7670,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="124"/>
-      <c r="B65" s="119"/>
+      <c r="A65" s="125"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7727,8 +7727,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="119"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7784,8 +7784,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="124"/>
-      <c r="B67" s="120"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7842,8 +7842,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="124"/>
-      <c r="B68" s="119">
+      <c r="A68" s="125"/>
+      <c r="B68" s="107">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
-      <c r="G68" s="102" t="s">
+      <c r="G68" s="121" t="s">
         <v>238</v>
       </c>
       <c r="H68" s="86" t="s">
@@ -7911,8 +7911,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="124"/>
-      <c r="B69" s="122"/>
+      <c r="A69" s="125"/>
+      <c r="B69" s="106"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="E69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G69" s="105"/>
+      <c r="G69" s="122"/>
       <c r="I69" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -7974,15 +7974,15 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="124"/>
-      <c r="B70" s="119"/>
+      <c r="A70" s="125"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="105"/>
+      <c r="G70" s="122"/>
       <c r="H70" s="86" t="s">
         <v>240</v>
       </c>
@@ -8037,8 +8037,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="124"/>
-      <c r="B71" s="119"/>
+      <c r="A71" s="125"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8048,7 +8048,7 @@
       <c r="E71" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G71" s="105"/>
+      <c r="G71" s="122"/>
       <c r="I71" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8100,15 +8100,15 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="124"/>
-      <c r="B72" s="119"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="107"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="105"/>
+      <c r="G72" s="122"/>
       <c r="H72" s="86" t="s">
         <v>241</v>
       </c>
@@ -8163,8 +8163,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="124"/>
-      <c r="B73" s="119"/>
+      <c r="A73" s="125"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="E73" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="105"/>
+      <c r="G73" s="122"/>
       <c r="I73" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8226,8 +8226,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="124"/>
-      <c r="B74" s="119"/>
+      <c r="A74" s="125"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
-      <c r="G74" s="103"/>
+      <c r="G74" s="118"/>
       <c r="H74" s="89" t="s">
         <v>242</v>
       </c>
@@ -8291,8 +8291,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="124"/>
-      <c r="B75" s="120">
+      <c r="A75" s="125"/>
+      <c r="B75" s="109">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8305,7 +8305,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="102" t="s">
+      <c r="G75" s="121" t="s">
         <v>231</v>
       </c>
       <c r="H75" s="86" t="s">
@@ -8362,8 +8362,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="124"/>
-      <c r="B76" s="122"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="103"/>
+      <c r="G76" s="118"/>
       <c r="H76" s="89" t="s">
         <v>237</v>
       </c>
@@ -8429,7 +8429,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="124"/>
+      <c r="A77" s="125"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8494,7 +8494,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="124"/>
+      <c r="A78" s="125"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8557,8 +8557,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="124"/>
-      <c r="B79" s="113">
+      <c r="A79" s="125"/>
+      <c r="B79" s="133">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8621,8 +8621,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="114"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="134"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="124"/>
+      <c r="A81" s="125"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8747,7 +8747,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="124"/>
+      <c r="A82" s="125"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8811,10 +8811,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="118">
+      <c r="B83" s="120">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8878,8 +8878,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="116"/>
-      <c r="B84" s="119"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8938,8 +8938,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="116"/>
-      <c r="B85" s="119"/>
+      <c r="A85" s="104"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -8998,8 +8998,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="116"/>
-      <c r="B86" s="119"/>
+      <c r="A86" s="104"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9058,8 +9058,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="116"/>
-      <c r="B87" s="119"/>
+      <c r="A87" s="104"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9118,8 +9118,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="116"/>
-      <c r="B88" s="119"/>
+      <c r="A88" s="104"/>
+      <c r="B88" s="107"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9178,8 +9178,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="116"/>
-      <c r="B89" s="119"/>
+      <c r="A89" s="104"/>
+      <c r="B89" s="107"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9238,8 +9238,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="116"/>
-      <c r="B90" s="119"/>
+      <c r="A90" s="104"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9298,8 +9298,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="116"/>
-      <c r="B91" s="119"/>
+      <c r="A91" s="104"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9358,8 +9358,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="116"/>
-      <c r="B92" s="119"/>
+      <c r="A92" s="104"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9418,15 +9418,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="116"/>
-      <c r="B93" s="119"/>
+      <c r="A93" s="104"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="105" t="s">
+      <c r="G93" s="122" t="s">
         <v>222</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9483,15 +9483,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="116"/>
-      <c r="B94" s="119"/>
+      <c r="A94" s="104"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="105"/>
+      <c r="G94" s="122"/>
       <c r="H94" s="86" t="s">
         <v>224</v>
       </c>
@@ -9546,15 +9546,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="116"/>
-      <c r="B95" s="119"/>
+      <c r="A95" s="104"/>
+      <c r="B95" s="107"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="105"/>
+      <c r="G95" s="122"/>
       <c r="H95" s="86" t="s">
         <v>225</v>
       </c>
@@ -9609,15 +9609,15 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="116"/>
-      <c r="B96" s="119"/>
+      <c r="A96" s="104"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="105"/>
+      <c r="G96" s="122"/>
       <c r="H96" s="86" t="s">
         <v>226</v>
       </c>
@@ -9672,8 +9672,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="116"/>
-      <c r="B97" s="119"/>
+      <c r="A97" s="104"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9732,8 +9732,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="116"/>
-      <c r="B98" s="120"/>
+      <c r="A98" s="104"/>
+      <c r="B98" s="109"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9793,8 +9793,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="116"/>
-      <c r="B99" s="119">
+      <c r="A99" s="104"/>
+      <c r="B99" s="107">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9857,8 +9857,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="116"/>
-      <c r="B100" s="119"/>
+      <c r="A100" s="104"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9917,8 +9917,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="116"/>
-      <c r="B101" s="119"/>
+      <c r="A101" s="104"/>
+      <c r="B101" s="107"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9977,8 +9977,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="116"/>
-      <c r="B102" s="119"/>
+      <c r="A102" s="104"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10037,8 +10037,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="116"/>
-      <c r="B103" s="119"/>
+      <c r="A103" s="104"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10097,8 +10097,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="116"/>
-      <c r="B104" s="119"/>
+      <c r="A104" s="104"/>
+      <c r="B104" s="107"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10157,8 +10157,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="116"/>
-      <c r="B105" s="119"/>
+      <c r="A105" s="104"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10217,8 +10217,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="116"/>
-      <c r="B106" s="119"/>
+      <c r="A106" s="104"/>
+      <c r="B106" s="107"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10277,8 +10277,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="116"/>
-      <c r="B107" s="119"/>
+      <c r="A107" s="104"/>
+      <c r="B107" s="107"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10337,8 +10337,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="116"/>
-      <c r="B108" s="119"/>
+      <c r="A108" s="104"/>
+      <c r="B108" s="107"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10397,8 +10397,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="116"/>
-      <c r="B109" s="119"/>
+      <c r="A109" s="104"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10457,8 +10457,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="116"/>
-      <c r="B110" s="119"/>
+      <c r="A110" s="104"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10517,8 +10517,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="116"/>
-      <c r="B111" s="119"/>
+      <c r="A111" s="104"/>
+      <c r="B111" s="107"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10577,8 +10577,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="116"/>
-      <c r="B112" s="119"/>
+      <c r="A112" s="104"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10637,8 +10637,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="116"/>
-      <c r="B113" s="119"/>
+      <c r="A113" s="104"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10697,8 +10697,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="116"/>
-      <c r="B114" s="119"/>
+      <c r="A114" s="104"/>
+      <c r="B114" s="107"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10760,8 +10760,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="116"/>
-      <c r="B115" s="122">
+      <c r="A115" s="104"/>
+      <c r="B115" s="106">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10822,8 +10822,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="116"/>
-      <c r="B116" s="119"/>
+      <c r="A116" s="104"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10882,8 +10882,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="116"/>
-      <c r="B117" s="119"/>
+      <c r="A117" s="104"/>
+      <c r="B117" s="107"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10942,8 +10942,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="116"/>
-      <c r="B118" s="119"/>
+      <c r="A118" s="104"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -11002,8 +11002,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="116"/>
-      <c r="B119" s="119"/>
+      <c r="A119" s="104"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11059,8 +11059,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="116"/>
-      <c r="B120" s="119"/>
+      <c r="A120" s="104"/>
+      <c r="B120" s="107"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11116,8 +11116,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="116"/>
-      <c r="B121" s="119"/>
+      <c r="A121" s="104"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11173,8 +11173,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="116"/>
-      <c r="B122" s="119"/>
+      <c r="A122" s="104"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11230,8 +11230,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="116"/>
-      <c r="B123" s="119"/>
+      <c r="A123" s="104"/>
+      <c r="B123" s="107"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11287,8 +11287,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="116"/>
-      <c r="B124" s="119"/>
+      <c r="A124" s="104"/>
+      <c r="B124" s="107"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11344,8 +11344,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="116"/>
-      <c r="B125" s="119"/>
+      <c r="A125" s="104"/>
+      <c r="B125" s="107"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11404,8 +11404,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="116"/>
-      <c r="B126" s="119"/>
+      <c r="A126" s="104"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11464,8 +11464,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="116"/>
-      <c r="B127" s="119"/>
+      <c r="A127" s="104"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11524,8 +11524,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="116"/>
-      <c r="B128" s="119"/>
+      <c r="A128" s="104"/>
+      <c r="B128" s="107"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11584,8 +11584,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="116"/>
-      <c r="B129" s="119"/>
+      <c r="A129" s="104"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11641,8 +11641,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="117"/>
-      <c r="B130" s="120"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="109"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11698,10 +11698,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="115" t="s">
+      <c r="A131" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="118">
+      <c r="B131" s="120">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="104" t="s">
+      <c r="G131" s="117" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11767,15 +11767,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="116"/>
-      <c r="B132" s="119"/>
+      <c r="A132" s="104"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="105"/>
+      <c r="G132" s="122"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11827,15 +11827,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="116"/>
-      <c r="B133" s="119"/>
+      <c r="A133" s="104"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="105"/>
+      <c r="G133" s="122"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11887,15 +11887,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="116"/>
-      <c r="B134" s="119"/>
+      <c r="A134" s="104"/>
+      <c r="B134" s="107"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="105"/>
+      <c r="G134" s="122"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11947,15 +11947,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="116"/>
-      <c r="B135" s="119"/>
+      <c r="A135" s="104"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="105"/>
+      <c r="G135" s="122"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12007,15 +12007,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="116"/>
-      <c r="B136" s="119"/>
+      <c r="A136" s="104"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="105"/>
+      <c r="G136" s="122"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12067,15 +12067,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="116"/>
-      <c r="B137" s="119"/>
+      <c r="A137" s="104"/>
+      <c r="B137" s="107"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="105"/>
+      <c r="G137" s="122"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12127,15 +12127,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="116"/>
-      <c r="B138" s="119"/>
+      <c r="A138" s="104"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="105"/>
+      <c r="G138" s="122"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12187,15 +12187,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="116"/>
-      <c r="B139" s="119"/>
+      <c r="A139" s="104"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="105"/>
+      <c r="G139" s="122"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12247,15 +12247,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="117"/>
-      <c r="B140" s="120"/>
+      <c r="A140" s="116"/>
+      <c r="B140" s="109"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="121"/>
+      <c r="G140" s="123"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12307,10 +12307,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="115" t="s">
+      <c r="A141" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="118" t="s">
+      <c r="B141" s="120" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="104" t="s">
+      <c r="G141" s="117" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12376,15 +12376,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="116"/>
-      <c r="B142" s="119"/>
+      <c r="A142" s="104"/>
+      <c r="B142" s="107"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="105"/>
+      <c r="G142" s="122"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12436,8 +12436,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="116"/>
-      <c r="B143" s="119"/>
+      <c r="A143" s="104"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="105"/>
+      <c r="G143" s="122"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12497,8 +12497,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="116"/>
-      <c r="B144" s="119"/>
+      <c r="A144" s="104"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="103"/>
+      <c r="G144" s="118"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12560,8 +12560,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="116"/>
-      <c r="B145" s="122" t="s">
+      <c r="A145" s="104"/>
+      <c r="B145" s="106" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12570,7 +12570,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="102" t="s">
+      <c r="G145" s="121" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12624,15 +12624,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="116"/>
-      <c r="B146" s="119"/>
+      <c r="A146" s="104"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="105"/>
+      <c r="G146" s="122"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12684,8 +12684,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="117"/>
-      <c r="B147" s="120"/>
+      <c r="A147" s="116"/>
+      <c r="B147" s="109"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="105"/>
+      <c r="G147" s="122"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12745,15 +12745,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="117"/>
-      <c r="B148" s="120"/>
+      <c r="A148" s="116"/>
+      <c r="B148" s="109"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="121"/>
+      <c r="G148" s="123"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12805,10 +12805,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="106" t="s">
+      <c r="A149" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="109" t="s">
+      <c r="B149" s="129" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="104" t="s">
+      <c r="G149" s="117" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12874,15 +12874,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="107"/>
-      <c r="B150" s="110"/>
+      <c r="A150" s="127"/>
+      <c r="B150" s="130"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="105"/>
+      <c r="G150" s="122"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12934,15 +12934,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="107"/>
-      <c r="B151" s="110"/>
+      <c r="A151" s="127"/>
+      <c r="B151" s="130"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="105"/>
+      <c r="G151" s="122"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12994,15 +12994,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="107"/>
-      <c r="B152" s="110"/>
+      <c r="A152" s="127"/>
+      <c r="B152" s="130"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="105"/>
+      <c r="G152" s="122"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13054,8 +13054,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="108"/>
-      <c r="B153" s="111"/>
+      <c r="A153" s="128"/>
+      <c r="B153" s="131"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="112"/>
+      <c r="G153" s="132"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13119,6 +13119,63 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G68:G74"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13135,63 +13192,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G68:G74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.5/Parent_Turtle_RC19main.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="239">
   <si>
     <t>VSS_A</t>
     <phoneticPr fontId="1"/>
@@ -950,14 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PB10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PB11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ENC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -982,31 +974,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PE5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PE6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PWM QI</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PC9</t>
+    <t>ENC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PA8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3541,10 +3525,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="J1" activeCellId="1" sqref="H76 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3918,7 +3902,7 @@
         <v>227</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="I6" s="86">
         <f t="shared" si="6"/>
@@ -3987,7 +3971,7 @@
       </c>
       <c r="G7" s="108"/>
       <c r="H7" s="86" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="I7" s="86">
         <f t="shared" si="6"/>
@@ -4315,7 +4299,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="33" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>PC6</v>
       </c>
       <c r="L12" s="24" t="str">
         <f t="shared" si="8"/>
@@ -4376,7 +4360,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="33" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>PC7</v>
       </c>
       <c r="L13" s="24" t="str">
         <f t="shared" si="8"/>
@@ -5216,7 +5200,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PA8</v>
+        <v/>
       </c>
       <c r="L26" s="24" t="str">
         <f t="shared" si="8"/>
@@ -5280,11 +5264,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="33" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>PC9</v>
       </c>
       <c r="L27" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>PC9</v>
       </c>
       <c r="M27" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6121,15 +6105,17 @@
       <c r="G41" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85" t="str">
+      <c r="H41" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="85">
         <f t="shared" si="6"/>
-        <v/>
+        <v>67</v>
       </c>
       <c r="J41" s="53"/>
       <c r="K41" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PA8</v>
+        <v/>
       </c>
       <c r="L41" s="24" t="str">
         <f t="shared" si="8"/>
@@ -6143,9 +6129,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P41" s="1" t="str">
+      <c r="P41" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H41,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H41,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>67</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="11"/>
@@ -6580,10 +6566,15 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="121"/>
-      <c r="I48" s="86" t="str">
+      <c r="G48" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>77</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="33" t="str">
@@ -6596,15 +6587,15 @@
       </c>
       <c r="M48" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PA15</v>
+        <v/>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P48" s="1" t="str">
+      <c r="P48" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H48,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H48,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="11"/>
@@ -6624,7 +6615,7 @@
       </c>
       <c r="U48" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>ENC</v>
       </c>
       <c r="V48" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6644,9 +6635,12 @@
         <v>107</v>
       </c>
       <c r="G49" s="122"/>
-      <c r="I49" s="86" t="str">
+      <c r="H49" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>89</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="33" t="str">
@@ -6655,7 +6649,7 @@
       </c>
       <c r="L49" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PB3</v>
+        <v/>
       </c>
       <c r="M49" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6665,9 +6659,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P49" s="1" t="str">
+      <c r="P49" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H49,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H49,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="11"/>
@@ -6687,7 +6681,7 @@
       </c>
       <c r="U49" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>ENC</v>
       </c>
       <c r="V49" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6750,7 +6744,7 @@
       </c>
       <c r="U50" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>ENC</v>
       </c>
       <c r="V50" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6814,7 +6808,7 @@
       </c>
       <c r="U51" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>ENC</v>
       </c>
       <c r="V51" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6839,7 +6833,7 @@
         <v>52</v>
       </c>
       <c r="G52" s="121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H52" s="86" t="s">
         <v>218</v>
@@ -6859,7 +6853,7 @@
       </c>
       <c r="M52" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PC6</v>
       </c>
       <c r="O52" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6928,7 +6922,7 @@
       </c>
       <c r="M53" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PC7</v>
       </c>
       <c r="O53" s="1" t="str">
         <f t="shared" si="10"/>
@@ -6992,7 +6986,7 @@
       </c>
       <c r="M54" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PC8</v>
       </c>
       <c r="O54" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7057,7 +7051,7 @@
       </c>
       <c r="M55" s="28" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>PC9</v>
       </c>
       <c r="O55" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7107,10 +7101,10 @@
         <v>72</v>
       </c>
       <c r="G56" s="121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H56" s="86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I56" s="86">
         <f t="shared" si="6"/>
@@ -7176,7 +7170,7 @@
       </c>
       <c r="G57" s="122"/>
       <c r="H57" s="86" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I57" s="86">
         <f t="shared" si="6"/>
@@ -7369,10 +7363,10 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
       <c r="G60" s="121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H60" s="86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I60" s="86">
         <f t="shared" si="6"/>
@@ -7435,7 +7429,7 @@
       </c>
       <c r="G61" s="122"/>
       <c r="H61" s="86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I61" s="86">
         <f t="shared" si="6"/>
@@ -7855,19 +7849,16 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
       <c r="G68" s="121" t="s">
-        <v>238</v>
-      </c>
-      <c r="H68" s="86" t="s">
-        <v>239</v>
-      </c>
-      <c r="I68" s="86">
+        <v>234</v>
+      </c>
+      <c r="I68" s="86" t="str">
         <f t="shared" ref="I68:I131" si="17">IF(O68="",P68,O68)</f>
-        <v>63</v>
+        <v/>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="33" t="str">
         <f t="shared" ref="K68:K131" si="18">IF(D68="","",IF(COUNTIF($H:$H,D68)=0,D68,""))</f>
-        <v/>
+        <v>PC6</v>
       </c>
       <c r="L68" s="24" t="str">
         <f t="shared" ref="L68:L131" si="19">IF(E68="","",IF(COUNTIF($H:$H,E68)=0,E68,""))</f>
@@ -7881,9 +7872,9 @@
         <f t="shared" ref="O68:O131" si="21">IF(Q68,$Q$1,"")&amp;IF(R68=1,$R$1,"")</f>
         <v/>
       </c>
-      <c r="P68" s="1">
+      <c r="P68" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H68,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H68,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>63</v>
+        <v/>
       </c>
       <c r="Q68" s="1">
         <f t="shared" ref="Q68:Q131" si="22">IF(COUNTIF(H:H,H68)&gt;1,1,0)</f>
@@ -7983,17 +7974,14 @@
         <v>53</v>
       </c>
       <c r="G70" s="122"/>
-      <c r="H70" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="I70" s="86">
+      <c r="I70" s="86" t="str">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v/>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="33" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PC7</v>
       </c>
       <c r="L70" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8007,9 +7995,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P70" s="1">
+      <c r="P70" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H70,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H70,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>64</v>
+        <v/>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="22"/>
@@ -8109,17 +8097,14 @@
         <v>112</v>
       </c>
       <c r="G72" s="122"/>
-      <c r="H72" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I72" s="86">
+      <c r="I72" s="86" t="str">
         <f t="shared" si="17"/>
-        <v>65</v>
+        <v/>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="33" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PC8</v>
       </c>
       <c r="L72" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8133,9 +8118,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H72,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H72,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>65</v>
+        <v/>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="22"/>
@@ -8237,17 +8222,15 @@
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
       <c r="G74" s="118"/>
-      <c r="H74" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="I74" s="89">
+      <c r="H74" s="89"/>
+      <c r="I74" s="89" t="str">
         <f t="shared" si="17"/>
-        <v>66</v>
+        <v/>
       </c>
       <c r="J74" s="51"/>
       <c r="K74" s="33" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>PC9</v>
       </c>
       <c r="L74" s="24" t="str">
         <f t="shared" si="19"/>
@@ -8261,9 +8244,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P74" s="1">
+      <c r="P74" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H74,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H74,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>66</v>
+        <v/>
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="22"/>
@@ -8305,15 +8288,10 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="121" t="s">
-        <v>231</v>
-      </c>
-      <c r="H75" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="I75" s="86">
+      <c r="G75" s="121"/>
+      <c r="I75" s="86" t="str">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="33" t="str">
@@ -8322,7 +8300,7 @@
       </c>
       <c r="L75" s="24" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>PE5</v>
       </c>
       <c r="M75" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8332,9 +8310,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H75,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H75,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="22"/>
@@ -8354,7 +8332,7 @@
       </c>
       <c r="U75" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V75" s="1" t="str">
         <f t="shared" si="27"/>
@@ -8375,12 +8353,10 @@
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="118"/>
-      <c r="H76" s="89" t="s">
-        <v>237</v>
-      </c>
-      <c r="I76" s="89">
+      <c r="H76" s="89"/>
+      <c r="I76" s="89" t="str">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="J76" s="51"/>
       <c r="K76" s="33" t="str">
@@ -8389,7 +8365,7 @@
       </c>
       <c r="L76" s="24" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>PE6</v>
       </c>
       <c r="M76" s="28" t="str">
         <f t="shared" si="20"/>
@@ -8399,9 +8375,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="1" t="str">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H76,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H76,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="22"/>
@@ -8421,7 +8397,7 @@
       </c>
       <c r="U76" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>ENC</v>
+        <v/>
       </c>
       <c r="V76" s="1" t="str">
         <f t="shared" si="27"/>
@@ -11783,7 +11759,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="33" t="str">
         <f t="shared" ref="K132:K153" si="29">IF(D132="","",IF(COUNTIF($H:$H,D132)=0,D132,""))</f>
-        <v/>
+        <v>PC9</v>
       </c>
       <c r="L132" s="24" t="str">
         <f t="shared" ref="L132:L153" si="30">IF(E132="","",IF(COUNTIF($H:$H,E132)=0,E132,""))</f>
@@ -12083,7 +12059,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="33" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>PC6</v>
       </c>
       <c r="L137" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12143,7 +12119,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="33" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>PC7</v>
       </c>
       <c r="L138" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12830,7 +12806,7 @@
       <c r="J149" s="53"/>
       <c r="K149" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PB3</v>
+        <v/>
       </c>
       <c r="L149" s="24" t="str">
         <f t="shared" si="30"/>
@@ -12890,7 +12866,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="33" t="str">
         <f t="shared" si="29"/>
-        <v>PA15</v>
+        <v/>
       </c>
       <c r="L150" s="24" t="str">
         <f t="shared" si="30"/>
@@ -13123,9 +13099,9 @@
     <mergeCell ref="G41:G47"/>
     <mergeCell ref="G52:G55"/>
     <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
     <mergeCell ref="G56:G59"/>
     <mergeCell ref="G68:G74"/>
+    <mergeCell ref="G48:G51"/>
     <mergeCell ref="A149:A153"/>
     <mergeCell ref="B149:B153"/>
     <mergeCell ref="G149:G153"/>
@@ -13328,7 +13304,7 @@
       </c>
       <c r="D6" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B6,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM2_CN2</v>
       </c>
       <c r="E6" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B6,使用ポート!$H:$H,0)),"")</f>
@@ -13394,7 +13370,7 @@
       </c>
       <c r="G8" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B8,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM9_CN1</v>
+        <v/>
       </c>
       <c r="H8" s="98"/>
       <c r="I8" s="137"/>
@@ -13413,7 +13389,7 @@
       </c>
       <c r="E9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM8_CN1</v>
+        <v/>
       </c>
       <c r="F9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
@@ -13421,7 +13397,7 @@
       </c>
       <c r="G9" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;G$2&amp;$B9,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM9_CN2</v>
+        <v/>
       </c>
       <c r="H9" s="98"/>
       <c r="I9" s="137"/>
@@ -13440,7 +13416,7 @@
       </c>
       <c r="E10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM8_CN2</v>
+        <v/>
       </c>
       <c r="F10" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B10,使用ポート!$H:$H,0)),"")</f>
@@ -13459,7 +13435,7 @@
       </c>
       <c r="C11" s="2" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;C$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM1_CN1</v>
       </c>
       <c r="D11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
@@ -13467,7 +13443,7 @@
       </c>
       <c r="E11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM8_CN3</v>
+        <v/>
       </c>
       <c r="F11" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B11,使用ポート!$H:$H,0)),"")</f>
@@ -13494,7 +13470,7 @@
       </c>
       <c r="E12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
-        <v>TIM8_CN4</v>
+        <v/>
       </c>
       <c r="F12" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B12,使用ポート!$H:$H,0)),"")</f>
@@ -13648,7 +13624,7 @@
       </c>
       <c r="C18" s="76" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;C$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>TIM2_CN1</v>
       </c>
       <c r="D18" s="77" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B18,使用ポート!$H:$H,0)),"")</f>
